--- a/Unity/Assets/Config/Excel/Datas/SkillConfig.xlsx
+++ b/Unity/Assets/Config/Excel/Datas/SkillConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22890" windowHeight="12600"/>
+    <workbookView windowWidth="22080" windowHeight="12180"/>
   </bookViews>
   <sheets>
     <sheet name="Skill" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="63">
   <si>
     <t>##var</t>
   </si>
@@ -60,6 +60,9 @@
     <t>Params</t>
   </si>
   <si>
+    <t>ActionEventId</t>
+  </si>
+  <si>
     <t>##type</t>
   </si>
   <si>
@@ -97,6 +100,9 @@
   </si>
   <si>
     <t>技能参数</t>
+  </si>
+  <si>
+    <t>行为事件id</t>
   </si>
   <si>
     <t>扩散吞噬1级</t>
@@ -1257,10 +1263,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J15"/>
+  <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+      <selection activeCell="K4" sqref="K4:K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1273,10 +1279,11 @@
     <col min="8" max="8" width="14.8583333333333" style="4" customWidth="1"/>
     <col min="9" max="9" width="12.5666666666667" style="4" customWidth="1"/>
     <col min="10" max="10" width="18.8583333333333" style="5" customWidth="1"/>
-    <col min="11" max="16384" width="9" style="4"/>
+    <col min="11" max="11" width="12.5666666666667" style="4" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1307,72 +1314,81 @@
       <c r="J1" s="8" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:10">
+      <c r="K1" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E2" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="I2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="J2" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="I2" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="J2" s="8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J3" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" s="3" customFormat="1" spans="2:10">
+        <v>23</v>
+      </c>
+      <c r="K3" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" s="3" customFormat="1" spans="2:11">
       <c r="B4" s="3">
         <v>1001</v>
       </c>
@@ -1383,13 +1399,13 @@
         <v>2</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="H4" s="3">
         <v>1000</v>
@@ -1398,10 +1414,13 @@
         <v>3000</v>
       </c>
       <c r="J4" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" s="3" customFormat="1" spans="2:10">
+        <v>27</v>
+      </c>
+      <c r="K4" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" s="3" customFormat="1" spans="2:11">
       <c r="B5" s="3">
         <v>1001</v>
       </c>
@@ -1412,13 +1431,13 @@
         <v>2</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="H5" s="3">
         <v>1000</v>
@@ -1427,10 +1446,13 @@
         <v>3000</v>
       </c>
       <c r="J5" s="9" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="6" s="3" customFormat="1" spans="2:10">
+        <v>30</v>
+      </c>
+      <c r="K5" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" s="3" customFormat="1" spans="2:11">
       <c r="B6" s="3">
         <v>1001</v>
       </c>
@@ -1441,13 +1463,13 @@
         <v>2</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H6" s="3">
         <v>1000</v>
@@ -1456,10 +1478,13 @@
         <v>3000</v>
       </c>
       <c r="J6" s="9" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="7" s="3" customFormat="1" spans="2:10">
+        <v>33</v>
+      </c>
+      <c r="K6" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" s="3" customFormat="1" spans="2:11">
       <c r="B7" s="3">
         <v>1001</v>
       </c>
@@ -1470,13 +1495,13 @@
         <v>2</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H7" s="3">
         <v>1000</v>
@@ -1485,10 +1510,13 @@
         <v>3000</v>
       </c>
       <c r="J7" s="9" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="8" spans="2:10">
+        <v>36</v>
+      </c>
+      <c r="K7" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11">
       <c r="B8" s="3">
         <v>1002</v>
       </c>
@@ -1499,13 +1527,13 @@
         <v>2</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H8" s="3">
         <v>1000</v>
@@ -1514,10 +1542,13 @@
         <v>2000</v>
       </c>
       <c r="J8" s="9" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="9" spans="2:10">
+        <v>39</v>
+      </c>
+      <c r="K8" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11">
       <c r="B9" s="3">
         <v>1002</v>
       </c>
@@ -1528,13 +1559,13 @@
         <v>2</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H9" s="3">
         <v>1000</v>
@@ -1543,10 +1574,13 @@
         <v>2000</v>
       </c>
       <c r="J9" s="9" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="10" spans="2:10">
+        <v>42</v>
+      </c>
+      <c r="K9" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11">
       <c r="B10" s="3">
         <v>1002</v>
       </c>
@@ -1557,13 +1591,13 @@
         <v>2</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H10" s="3">
         <v>1000</v>
@@ -1572,10 +1606,13 @@
         <v>2000</v>
       </c>
       <c r="J10" s="9" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="11" spans="2:10">
+        <v>45</v>
+      </c>
+      <c r="K10" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11">
       <c r="B11" s="3">
         <v>1002</v>
       </c>
@@ -1586,13 +1623,13 @@
         <v>2</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H11" s="3">
         <v>1000</v>
@@ -1601,7 +1638,10 @@
         <v>2000</v>
       </c>
       <c r="J11" s="9" t="s">
-        <v>46</v>
+        <v>48</v>
+      </c>
+      <c r="K11" s="3">
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="10:10">
@@ -1641,7 +1681,7 @@
   <sheetData>
     <row r="4" spans="2:10">
       <c r="B4" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -1654,22 +1694,22 @@
     </row>
     <row r="5" spans="2:7">
       <c r="B5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E5" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F5" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G5" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="2:5">
@@ -1677,32 +1717,32 @@
         <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D6" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E6" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7" spans="4:6">
       <c r="D7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8" spans="4:7">
       <c r="D8" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F8" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G8" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>

--- a/Unity/Assets/Config/Excel/Datas/SkillConfig.xlsx
+++ b/Unity/Assets/Config/Excel/Datas/SkillConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22080" windowHeight="12180"/>
+    <workbookView windowWidth="22080" windowHeight="12180" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Skill" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="68">
   <si>
     <t>##var</t>
   </si>
@@ -57,142 +57,157 @@
     <t>CD</t>
   </si>
   <si>
+    <t>##Params</t>
+  </si>
+  <si>
+    <t>ActionEventIds</t>
+  </si>
+  <si>
+    <t>ActionEventTriggerPercent</t>
+  </si>
+  <si>
+    <t>##type</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>(list#sep=,),int</t>
+  </si>
+  <si>
+    <t>##</t>
+  </si>
+  <si>
+    <t>技能等级</t>
+  </si>
+  <si>
+    <t>技能抽象类型</t>
+  </si>
+  <si>
+    <t>测试说明</t>
+  </si>
+  <si>
+    <t>名字</t>
+  </si>
+  <si>
+    <t>描述</t>
+  </si>
+  <si>
+    <t>技能持续时间毫秒</t>
+  </si>
+  <si>
+    <t>冷却时间毫秒</t>
+  </si>
+  <si>
+    <t>技能参数</t>
+  </si>
+  <si>
+    <t>行为事件id</t>
+  </si>
+  <si>
+    <t>行为事件触发百分比，跟左边id一一对应</t>
+  </si>
+  <si>
+    <t>扩散吞噬1级</t>
+  </si>
+  <si>
+    <t>爆发混沌之力，吸食2m附近食物</t>
+  </si>
+  <si>
+    <t>0,1,2000</t>
+  </si>
+  <si>
+    <t>1,2</t>
+  </si>
+  <si>
+    <t>10,20</t>
+  </si>
+  <si>
+    <t>扩散吞噬2级</t>
+  </si>
+  <si>
+    <t>爆发混沌之力，吸食3m附近食物</t>
+  </si>
+  <si>
+    <t>0,1,3000</t>
+  </si>
+  <si>
+    <t>扩散吞噬3级</t>
+  </si>
+  <si>
+    <t>爆发混沌之力，吸食4m附近食物</t>
+  </si>
+  <si>
+    <t>0,1,4000</t>
+  </si>
+  <si>
+    <t>扩散吞噬4级</t>
+  </si>
+  <si>
+    <t>爆发混沌之力，吸食5m附近食物</t>
+  </si>
+  <si>
+    <t>0,1,5000</t>
+  </si>
+  <si>
+    <t>随机喷射1级</t>
+  </si>
+  <si>
+    <t>随机方向间隔发射1颗子弹</t>
+  </si>
+  <si>
+    <t>0,2,300,1500,1</t>
+  </si>
+  <si>
+    <t>随机喷射2级</t>
+  </si>
+  <si>
+    <t>随机方向间隔发射2颗子弹</t>
+  </si>
+  <si>
+    <t>0,2,300,1500,2</t>
+  </si>
+  <si>
+    <t>随机喷射3级</t>
+  </si>
+  <si>
+    <t>随机方向间隔发射3颗子弹</t>
+  </si>
+  <si>
+    <t>0,2,300,1500,3</t>
+  </si>
+  <si>
+    <t>随机喷射4级</t>
+  </si>
+  <si>
+    <t>随机方向间隔发射4颗子弹</t>
+  </si>
+  <si>
+    <t>0,2,300,1500,4</t>
+  </si>
+  <si>
+    <t>##技能数据来源可以来源编辑器，可自行开发TimeLine时间轴编辑不同技能数据</t>
+  </si>
+  <si>
+    <t>参数0</t>
+  </si>
+  <si>
+    <t>参数1</t>
+  </si>
+  <si>
+    <t>参数2</t>
+  </si>
+  <si>
+    <t>参数3</t>
+  </si>
+  <si>
+    <t>参数4</t>
+  </si>
+  <si>
     <t>Params</t>
-  </si>
-  <si>
-    <t>ActionEventId</t>
-  </si>
-  <si>
-    <t>##type</t>
-  </si>
-  <si>
-    <t>int</t>
-  </si>
-  <si>
-    <t>string</t>
-  </si>
-  <si>
-    <t>(list#sep=,),int</t>
-  </si>
-  <si>
-    <t>##</t>
-  </si>
-  <si>
-    <t>技能等级</t>
-  </si>
-  <si>
-    <t>技能抽象类型</t>
-  </si>
-  <si>
-    <t>测试说明</t>
-  </si>
-  <si>
-    <t>名字</t>
-  </si>
-  <si>
-    <t>描述</t>
-  </si>
-  <si>
-    <t>技能持续时间毫秒</t>
-  </si>
-  <si>
-    <t>冷却时间毫秒</t>
-  </si>
-  <si>
-    <t>技能参数</t>
-  </si>
-  <si>
-    <t>行为事件id</t>
-  </si>
-  <si>
-    <t>扩散吞噬1级</t>
-  </si>
-  <si>
-    <t>爆发混沌之力，吸食2m附近食物</t>
-  </si>
-  <si>
-    <t>0,1,2000</t>
-  </si>
-  <si>
-    <t>扩散吞噬2级</t>
-  </si>
-  <si>
-    <t>爆发混沌之力，吸食3m附近食物</t>
-  </si>
-  <si>
-    <t>0,1,3000</t>
-  </si>
-  <si>
-    <t>扩散吞噬3级</t>
-  </si>
-  <si>
-    <t>爆发混沌之力，吸食4m附近食物</t>
-  </si>
-  <si>
-    <t>0,1,4000</t>
-  </si>
-  <si>
-    <t>扩散吞噬4级</t>
-  </si>
-  <si>
-    <t>爆发混沌之力，吸食5m附近食物</t>
-  </si>
-  <si>
-    <t>0,1,5000</t>
-  </si>
-  <si>
-    <t>随机喷射1级</t>
-  </si>
-  <si>
-    <t>随机方向间隔发射1颗子弹</t>
-  </si>
-  <si>
-    <t>0,2,300,1500,1</t>
-  </si>
-  <si>
-    <t>随机喷射2级</t>
-  </si>
-  <si>
-    <t>随机方向间隔发射2颗子弹</t>
-  </si>
-  <si>
-    <t>0,2,300,1500,2</t>
-  </si>
-  <si>
-    <t>随机喷射3级</t>
-  </si>
-  <si>
-    <t>随机方向间隔发射3颗子弹</t>
-  </si>
-  <si>
-    <t>0,2,300,1500,3</t>
-  </si>
-  <si>
-    <t>随机喷射4级</t>
-  </si>
-  <si>
-    <t>随机方向间隔发射4颗子弹</t>
-  </si>
-  <si>
-    <t>0,2,300,1500,4</t>
-  </si>
-  <si>
-    <t>##技能数据来源可以来源编辑器，可自行开发TimeLine时间轴编辑不同技能数据</t>
-  </si>
-  <si>
-    <t>参数0</t>
-  </si>
-  <si>
-    <t>参数1</t>
-  </si>
-  <si>
-    <t>参数2</t>
-  </si>
-  <si>
-    <t>参数3</t>
-  </si>
-  <si>
-    <t>参数4</t>
   </si>
   <si>
     <t>触发时间点百分比</t>
@@ -931,49 +946,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>18775</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>18594</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="图片 1"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="228600" y="2571750"/>
-          <a:ext cx="2522220" cy="3275965"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1263,10 +1235,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K15"/>
+  <dimension ref="A1:L15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4:K11"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1280,10 +1252,11 @@
     <col min="9" max="9" width="12.5666666666667" style="4" customWidth="1"/>
     <col min="10" max="10" width="18.8583333333333" style="5" customWidth="1"/>
     <col min="11" max="11" width="12.5666666666667" style="4" customWidth="1"/>
-    <col min="12" max="16384" width="9" style="4"/>
+    <col min="12" max="12" width="27.5" style="4" customWidth="1"/>
+    <col min="13" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:12">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1317,78 +1290,87 @@
       <c r="K1" s="6" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:11">
+      <c r="L1" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E2" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="I2" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="I2" s="6" t="s">
-        <v>12</v>
-      </c>
       <c r="J2" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="K2" s="6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
+        <v>15</v>
+      </c>
+      <c r="K2" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="L2" s="8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J3" s="8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K3" s="6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" s="3" customFormat="1" spans="2:11">
+        <v>25</v>
+      </c>
+      <c r="L3" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" s="3" customFormat="1" spans="2:12">
       <c r="B4" s="3">
         <v>1001</v>
       </c>
@@ -1399,13 +1381,13 @@
         <v>2</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H4" s="3">
         <v>1000</v>
@@ -1414,13 +1396,16 @@
         <v>3000</v>
       </c>
       <c r="J4" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="K4" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" s="3" customFormat="1" spans="2:11">
+        <v>29</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" s="3" customFormat="1" spans="2:12">
       <c r="B5" s="3">
         <v>1001</v>
       </c>
@@ -1431,13 +1416,13 @@
         <v>2</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H5" s="3">
         <v>1000</v>
@@ -1446,13 +1431,16 @@
         <v>3000</v>
       </c>
       <c r="J5" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="K5" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="K5" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" s="3" customFormat="1" spans="2:11">
+      <c r="L5" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" s="3" customFormat="1" spans="2:12">
       <c r="B6" s="3">
         <v>1001</v>
       </c>
@@ -1463,13 +1451,13 @@
         <v>2</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H6" s="3">
         <v>1000</v>
@@ -1478,13 +1466,16 @@
         <v>3000</v>
       </c>
       <c r="J6" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="K6" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" s="3" customFormat="1" spans="2:11">
+        <v>37</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" s="3" customFormat="1" spans="2:12">
       <c r="B7" s="3">
         <v>1001</v>
       </c>
@@ -1495,13 +1486,13 @@
         <v>2</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="H7" s="3">
         <v>1000</v>
@@ -1510,13 +1501,16 @@
         <v>3000</v>
       </c>
       <c r="J7" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="K7" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="2:11">
+        <v>40</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="L7" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12">
       <c r="B8" s="3">
         <v>1002</v>
       </c>
@@ -1527,13 +1521,13 @@
         <v>2</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="H8" s="3">
         <v>1000</v>
@@ -1542,13 +1536,16 @@
         <v>2000</v>
       </c>
       <c r="J8" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="K8" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="2:11">
+        <v>43</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12">
       <c r="B9" s="3">
         <v>1002</v>
       </c>
@@ -1559,13 +1556,13 @@
         <v>2</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="H9" s="3">
         <v>1000</v>
@@ -1574,13 +1571,16 @@
         <v>2000</v>
       </c>
       <c r="J9" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="K9" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="2:11">
+        <v>46</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="L9" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12">
       <c r="B10" s="3">
         <v>1002</v>
       </c>
@@ -1591,13 +1591,13 @@
         <v>2</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="H10" s="3">
         <v>1000</v>
@@ -1606,13 +1606,16 @@
         <v>2000</v>
       </c>
       <c r="J10" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="K10" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="2:11">
+        <v>49</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="L10" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12">
       <c r="B11" s="3">
         <v>1002</v>
       </c>
@@ -1623,13 +1626,13 @@
         <v>2</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="H11" s="3">
         <v>1000</v>
@@ -1638,10 +1641,13 @@
         <v>2000</v>
       </c>
       <c r="J11" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="K11" s="3">
-        <v>2</v>
+        <v>52</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="L11" s="3" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="10:10">
@@ -1668,7 +1674,7 @@
   <sheetPr/>
   <dimension ref="B4:J8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
@@ -1681,7 +1687,7 @@
   <sheetData>
     <row r="4" spans="2:10">
       <c r="B4" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -1694,61 +1700,60 @@
     </row>
     <row r="5" spans="2:7">
       <c r="B5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="D5" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E5" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="F5" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="G5" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="2:5">
       <c r="B6" t="s">
-        <v>9</v>
+        <v>59</v>
       </c>
       <c r="C6" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="D6" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="E6" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7" spans="4:6">
       <c r="D7" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="F7" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
     </row>
     <row r="8" spans="4:7">
       <c r="D8" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="F8" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="G8" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Unity/Assets/Config/Excel/Datas/SkillConfig.xlsx
+++ b/Unity/Assets/Config/Excel/Datas/SkillConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22080" windowHeight="12180" activeTab="1"/>
+    <workbookView windowWidth="23355" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="Skill" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="67">
   <si>
     <t>##var</t>
   </si>
@@ -118,9 +118,6 @@
   </si>
   <si>
     <t>0,1,2000</t>
-  </si>
-  <si>
-    <t>1,2</t>
   </si>
   <si>
     <t>10,20</t>
@@ -1237,8 +1234,8 @@
   <sheetPr/>
   <dimension ref="A1:L15"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="K8" sqref="K8:K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1398,11 +1395,11 @@
       <c r="J4" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="K4" s="3">
+        <v>1</v>
+      </c>
+      <c r="L4" s="3" t="s">
         <v>30</v>
-      </c>
-      <c r="L4" s="3" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="5" s="3" customFormat="1" spans="2:12">
@@ -1419,10 +1416,10 @@
         <v>19</v>
       </c>
       <c r="F5" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>32</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>33</v>
       </c>
       <c r="H5" s="3">
         <v>1000</v>
@@ -1431,13 +1428,13 @@
         <v>3000</v>
       </c>
       <c r="J5" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="K5" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="K5" s="3">
+        <v>1</v>
+      </c>
+      <c r="L5" s="3" t="s">
         <v>30</v>
-      </c>
-      <c r="L5" s="3" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="6" s="3" customFormat="1" spans="2:12">
@@ -1454,10 +1451,10 @@
         <v>19</v>
       </c>
       <c r="F6" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G6" s="7" t="s">
         <v>35</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>36</v>
       </c>
       <c r="H6" s="3">
         <v>1000</v>
@@ -1466,13 +1463,13 @@
         <v>3000</v>
       </c>
       <c r="J6" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="K6" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="K6" s="3">
+        <v>1</v>
+      </c>
+      <c r="L6" s="3" t="s">
         <v>30</v>
-      </c>
-      <c r="L6" s="3" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="7" s="3" customFormat="1" spans="2:12">
@@ -1489,10 +1486,10 @@
         <v>19</v>
       </c>
       <c r="F7" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>38</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>39</v>
       </c>
       <c r="H7" s="3">
         <v>1000</v>
@@ -1501,13 +1498,13 @@
         <v>3000</v>
       </c>
       <c r="J7" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="K7" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="K7" s="3">
+        <v>1</v>
+      </c>
+      <c r="L7" s="3" t="s">
         <v>30</v>
-      </c>
-      <c r="L7" s="3" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="8" spans="2:12">
@@ -1524,10 +1521,10 @@
         <v>19</v>
       </c>
       <c r="F8" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>41</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>42</v>
       </c>
       <c r="H8" s="3">
         <v>1000</v>
@@ -1536,13 +1533,13 @@
         <v>2000</v>
       </c>
       <c r="J8" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="K8" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="K8" s="3">
+        <v>2</v>
+      </c>
+      <c r="L8" s="3" t="s">
         <v>30</v>
-      </c>
-      <c r="L8" s="3" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="9" spans="2:12">
@@ -1559,10 +1556,10 @@
         <v>19</v>
       </c>
       <c r="F9" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G9" s="7" t="s">
         <v>44</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>45</v>
       </c>
       <c r="H9" s="3">
         <v>1000</v>
@@ -1571,13 +1568,13 @@
         <v>2000</v>
       </c>
       <c r="J9" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="K9" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="K9" s="3">
+        <v>2</v>
+      </c>
+      <c r="L9" s="3" t="s">
         <v>30</v>
-      </c>
-      <c r="L9" s="3" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="10" spans="2:12">
@@ -1594,10 +1591,10 @@
         <v>19</v>
       </c>
       <c r="F10" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>47</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>48</v>
       </c>
       <c r="H10" s="3">
         <v>1000</v>
@@ -1606,13 +1603,13 @@
         <v>2000</v>
       </c>
       <c r="J10" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="K10" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="K10" s="3">
+        <v>2</v>
+      </c>
+      <c r="L10" s="3" t="s">
         <v>30</v>
-      </c>
-      <c r="L10" s="3" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="11" spans="2:12">
@@ -1629,10 +1626,10 @@
         <v>19</v>
       </c>
       <c r="F11" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>50</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>51</v>
       </c>
       <c r="H11" s="3">
         <v>1000</v>
@@ -1641,13 +1638,13 @@
         <v>2000</v>
       </c>
       <c r="J11" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="K11" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="K11" s="3">
+        <v>2</v>
+      </c>
+      <c r="L11" s="3" t="s">
         <v>30</v>
-      </c>
-      <c r="L11" s="3" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="12" spans="10:10">
@@ -1674,7 +1671,7 @@
   <sheetPr/>
   <dimension ref="B4:J8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
@@ -1687,7 +1684,7 @@
   <sheetData>
     <row r="4" spans="2:10">
       <c r="B4" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -1703,52 +1700,52 @@
         <v>24</v>
       </c>
       <c r="C5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D5" t="s">
         <v>54</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>55</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>56</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>57</v>
-      </c>
-      <c r="G5" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="6" spans="2:5">
       <c r="B6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C6" t="s">
         <v>59</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>60</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>61</v>
-      </c>
-      <c r="E6" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="7" spans="4:6">
       <c r="D7" t="s">
+        <v>62</v>
+      </c>
+      <c r="F7" t="s">
         <v>63</v>
-      </c>
-      <c r="F7" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="8" spans="4:7">
       <c r="D8" t="s">
+        <v>64</v>
+      </c>
+      <c r="F8" t="s">
         <v>65</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>66</v>
-      </c>
-      <c r="G8" t="s">
-        <v>67</v>
       </c>
     </row>
   </sheetData>
